--- a/va_facility_data_2025-02-20/Niagara Falls VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Niagara%20Falls%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Niagara Falls VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Niagara%20Falls%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R5bd3f96b561942919ee7692f5e2bb31d"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Red399d25307d437b8a7c6fbbf8390b17"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R96376c30b3c54d86b85d19db91885d99"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R68a7765ca43f4ab5859ff34533111f13"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R249e26093db442f4b74974e45a1b216b"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R799d107011c04ef2a1782eefc1e75b91"/>
   </x:sheets>
 </x:workbook>
 </file>
